--- a/biology/Botanique/Tulipier/Tulipier.xlsx
+++ b/biology/Botanique/Tulipier/Tulipier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -491,7 +503,7 @@
 Tulipier de Chine (Liriodendron chinense), très semblable au tulipier de Virginie, originaire de Chine
 Laurier tulipier (Magnolia grandiflora), arbre d'ornement appelé aussi magnolia à grandes fleurs ou magnolier à grandes fleurs (famille des Magnoliaceae)
 Par confusion :
-Tulipier, nom vernaculaire donné par confusion au Magnolia de Soulange (Magnolia ×soulangeana), ou « faux tulipier », en référence à sa floraison spectaculaire au printemps qui ressemble à des tulipes roses[1].
+Tulipier, nom vernaculaire donné par confusion au Magnolia de Soulange (Magnolia ×soulangeana), ou « faux tulipier », en référence à sa floraison spectaculaire au printemps qui ressemble à des tulipes roses.
 			Tulipier du Gabon.
 			Tulipier de Virginie.
 			Tulipier de Virginie, 1901, Henri Bergé, musée de l'Ecole de Nancy.
